--- a/BackTest/2019-10-28 BackTest PAY.xlsx
+++ b/BackTest/2019-10-28 BackTest PAY.xlsx
@@ -451,17 +451,13 @@
         <v>84.93000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>84</v>
-      </c>
-      <c r="K2" t="n">
-        <v>84</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>84.845</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>84</v>
-      </c>
-      <c r="K3" t="n">
-        <v>84</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>84.76500000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>84</v>
-      </c>
-      <c r="K4" t="n">
-        <v>84</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>84.69500000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>84</v>
-      </c>
-      <c r="K5" t="n">
-        <v>84</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>84.64500000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>84</v>
-      </c>
-      <c r="K6" t="n">
-        <v>84</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>84.58</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>84</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>84.57499999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>84</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>84.56499999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>84</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>84.54999999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>84</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>84.49999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>85</v>
-      </c>
-      <c r="K11" t="n">
-        <v>84</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>84.42499999999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>84</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>84.39999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>85</v>
-      </c>
-      <c r="K13" t="n">
-        <v>84</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>84.43499999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>84</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>84.48499999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>84</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>84.56499999999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>84</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>84.65499999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>85</v>
-      </c>
-      <c r="K17" t="n">
-        <v>84</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>84.76499999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="K18" t="n">
-        <v>84</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>84.79499999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>85</v>
-      </c>
-      <c r="K19" t="n">
-        <v>84</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>84.90499999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>84</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1116,14 @@
         <v>84.95499999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>85</v>
-      </c>
-      <c r="K21" t="n">
-        <v>84</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1151,14 @@
         <v>85.00499999999998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>84</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,22 +1186,14 @@
         <v>85.05499999999998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>84</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1389,22 +1221,14 @@
         <v>85.10499999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>85</v>
-      </c>
-      <c r="K24" t="n">
-        <v>84</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1256,14 @@
         <v>85.19499999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>84</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1475,22 +1291,14 @@
         <v>85.28999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>84</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1326,14 @@
         <v>85.35999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>86</v>
-      </c>
-      <c r="K27" t="n">
-        <v>84</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1561,22 +1361,14 @@
         <v>85.35999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>84</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1396,14 @@
         <v>85.36999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="K29" t="n">
-        <v>84</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1647,22 +1431,14 @@
         <v>85.38999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>84</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1466,14 @@
         <v>85.43999999999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>86</v>
-      </c>
-      <c r="K31" t="n">
-        <v>84</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1733,22 +1501,14 @@
         <v>85.47</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>84</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1776,22 +1536,14 @@
         <v>85.52</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>86</v>
-      </c>
-      <c r="K33" t="n">
-        <v>84</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1819,22 +1571,14 @@
         <v>85.535</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>86</v>
-      </c>
-      <c r="K34" t="n">
-        <v>84</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1606,14 @@
         <v>85.59999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>84</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1905,22 +1641,14 @@
         <v>85.64000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>84</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +1676,14 @@
         <v>85.71000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>84</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1991,22 +1711,14 @@
         <v>85.76000000000002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>84</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2034,22 +1746,14 @@
         <v>85.83000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K39" t="n">
-        <v>84</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2077,22 +1781,14 @@
         <v>85.88000000000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K40" t="n">
-        <v>84</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +1816,14 @@
         <v>85.96000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="K41" t="n">
-        <v>84</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2163,22 +1851,14 @@
         <v>86.04000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="K42" t="n">
-        <v>84</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2206,22 +1886,14 @@
         <v>86.12500000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>84</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2249,22 +1921,14 @@
         <v>86.22500000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>87</v>
-      </c>
-      <c r="K44" t="n">
-        <v>84</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +1956,14 @@
         <v>86.28500000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>87</v>
-      </c>
-      <c r="K45" t="n">
-        <v>84</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2341,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>84</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2382,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>84</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2423,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>84</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2464,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>84</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2505,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>84</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2546,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>84</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2587,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>84</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2628,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>84</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2669,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>84</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2710,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>84</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2751,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>84</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2792,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>84</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2833,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>84</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2874,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>84</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2915,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>84</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2956,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>84</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2997,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>84</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3038,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>84</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3079,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>84</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3120,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>84</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3161,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>84</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3202,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>84</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3243,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>84</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3284,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>84</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3325,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>84</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>84</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3407,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>84</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3448,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>84</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3489,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>84</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3530,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>84</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3571,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>84</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3612,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>84</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3653,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>84</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3694,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>84</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3735,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>84</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>84</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3817,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>84</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3858,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>84</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3899,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>84</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3940,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>84</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3981,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>84</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4022,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>84</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4063,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>84</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4104,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>84</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4145,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>84</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4186,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>84</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4227,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>84</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4268,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>84</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4309,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>84</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4350,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>84</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4391,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>84</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4432,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>84</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4473,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>84</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4514,14 +3852,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="K99" t="n">
-        <v>84</v>
-      </c>
+        <v>84.90000000000001</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -4559,9 +3895,7 @@
       <c r="J100" t="n">
         <v>84.7</v>
       </c>
-      <c r="K100" t="n">
-        <v>84</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4600,11 +3934,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K101" t="n">
-        <v>84</v>
-      </c>
+        <v>84.5</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4643,11 +3975,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>84</v>
-      </c>
+        <v>85.09999999999999</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,11 +4016,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="K103" t="n">
-        <v>84</v>
-      </c>
+        <v>84.59999999999999</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4731,9 +4059,7 @@
       <c r="J104" t="n">
         <v>84.7</v>
       </c>
-      <c r="K104" t="n">
-        <v>84</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,11 +4098,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>85</v>
-      </c>
-      <c r="K105" t="n">
-        <v>84</v>
-      </c>
+        <v>84.7</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4809,17 +4133,13 @@
         <v>85.38499999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K106" t="n">
-        <v>84</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,9 +4178,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>84</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,9 +4217,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>84</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,17 +4250,13 @@
         <v>85.10499999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="K109" t="n">
-        <v>84</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,17 +4289,13 @@
         <v>85.03499999999998</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="K110" t="n">
-        <v>84</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,17 +4328,13 @@
         <v>84.96499999999997</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="K111" t="n">
-        <v>84</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5063,17 +4367,13 @@
         <v>84.89999999999998</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="K112" t="n">
-        <v>84</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5106,17 +4406,13 @@
         <v>84.83499999999998</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="K113" t="n">
-        <v>84</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5149,17 +4445,13 @@
         <v>84.77499999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="K114" t="n">
-        <v>84</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5192,17 +4484,13 @@
         <v>84.72</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>84</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,17 +4523,13 @@
         <v>84.69499999999999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="K116" t="n">
-        <v>84</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,17 +4562,13 @@
         <v>84.67999999999998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="K117" t="n">
-        <v>84</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5321,17 +4601,13 @@
         <v>84.66999999999999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="K118" t="n">
-        <v>84</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5364,17 +4640,13 @@
         <v>84.66499999999999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="K119" t="n">
-        <v>84</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5407,17 +4679,13 @@
         <v>84.67499999999998</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="K120" t="n">
-        <v>84</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,17 +4718,13 @@
         <v>84.66499999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="K121" t="n">
-        <v>84</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,17 +4757,13 @@
         <v>84.68000000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="K122" t="n">
-        <v>84</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5536,17 +4796,13 @@
         <v>84.69000000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="K123" t="n">
-        <v>84</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,17 +4835,13 @@
         <v>84.71000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K124" t="n">
-        <v>84</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5622,17 +4874,13 @@
         <v>84.715</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K125" t="n">
-        <v>84</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5665,17 +4913,13 @@
         <v>84.715</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K126" t="n">
-        <v>84</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5708,17 +4952,13 @@
         <v>84.72</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="K127" t="n">
-        <v>84</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5751,17 +4991,13 @@
         <v>84.745</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K128" t="n">
-        <v>84</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,17 +5030,13 @@
         <v>84.77000000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K129" t="n">
-        <v>84</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,17 +5069,13 @@
         <v>84.80000000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K130" t="n">
-        <v>84</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5880,17 +5108,13 @@
         <v>84.83500000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K131" t="n">
-        <v>84</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,17 +5147,13 @@
         <v>84.87500000000001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K132" t="n">
-        <v>84</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5966,17 +5186,13 @@
         <v>84.91500000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K133" t="n">
-        <v>84</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,17 +5225,13 @@
         <v>84.95500000000001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K134" t="n">
-        <v>84</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6052,17 +5264,13 @@
         <v>84.995</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K135" t="n">
-        <v>84</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6095,17 +5303,13 @@
         <v>85.02500000000001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K136" t="n">
-        <v>84</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6138,17 +5342,13 @@
         <v>85.05500000000002</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K137" t="n">
-        <v>84</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6181,17 +5381,13 @@
         <v>85.07000000000002</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>85</v>
-      </c>
-      <c r="K138" t="n">
-        <v>84</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,17 +5420,13 @@
         <v>85.09500000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K139" t="n">
-        <v>84</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6267,17 +5459,13 @@
         <v>85.11000000000001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K140" t="n">
-        <v>84</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6310,17 +5498,13 @@
         <v>85.11500000000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>85</v>
-      </c>
-      <c r="K141" t="n">
-        <v>84</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,17 +5537,13 @@
         <v>85.13000000000001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K142" t="n">
-        <v>84</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,17 +5576,13 @@
         <v>85.15000000000001</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="K143" t="n">
-        <v>84</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,17 +5615,13 @@
         <v>85.18000000000001</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K144" t="n">
-        <v>84</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6482,17 +5654,13 @@
         <v>85.22500000000001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>86</v>
-      </c>
-      <c r="K145" t="n">
-        <v>84</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6525,17 +5693,13 @@
         <v>85.27000000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>86</v>
-      </c>
-      <c r="K146" t="n">
-        <v>84</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6568,17 +5732,13 @@
         <v>85.32000000000002</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="K147" t="n">
-        <v>84</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6611,17 +5771,13 @@
         <v>85.35500000000002</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="K148" t="n">
-        <v>84</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6654,17 +5810,13 @@
         <v>85.39500000000002</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="K149" t="n">
-        <v>84</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6697,17 +5849,13 @@
         <v>85.43500000000003</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>86</v>
-      </c>
-      <c r="K150" t="n">
-        <v>84</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6740,17 +5888,13 @@
         <v>85.47000000000003</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="K151" t="n">
-        <v>84</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6783,17 +5927,13 @@
         <v>85.47500000000002</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="K152" t="n">
-        <v>84</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,17 +5966,13 @@
         <v>85.50500000000002</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K153" t="n">
-        <v>84</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,17 +6005,13 @@
         <v>85.53500000000001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K154" t="n">
-        <v>84</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6912,17 +6044,13 @@
         <v>85.52500000000001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>85</v>
-      </c>
-      <c r="K155" t="n">
-        <v>84</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6955,17 +6083,13 @@
         <v>85.51500000000001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>85</v>
-      </c>
-      <c r="K156" t="n">
-        <v>84</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6998,17 +6122,13 @@
         <v>85.54000000000001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K157" t="n">
-        <v>84</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,17 +6161,13 @@
         <v>85.57500000000002</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K158" t="n">
-        <v>84</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7084,17 +6200,13 @@
         <v>85.60000000000001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="K159" t="n">
-        <v>84</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7127,17 +6239,13 @@
         <v>85.64000000000001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>86</v>
-      </c>
-      <c r="K160" t="n">
-        <v>84</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,17 +6278,13 @@
         <v>85.69000000000001</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>86</v>
-      </c>
-      <c r="K161" t="n">
-        <v>84</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7213,17 +6317,13 @@
         <v>85.75500000000001</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="K162" t="n">
-        <v>84</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7256,17 +6356,13 @@
         <v>85.83000000000001</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="K163" t="n">
-        <v>84</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7299,17 +6395,13 @@
         <v>85.88500000000001</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="K164" t="n">
-        <v>84</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7342,17 +6434,13 @@
         <v>85.925</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="K165" t="n">
-        <v>84</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7385,17 +6473,13 @@
         <v>85.955</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="K166" t="n">
-        <v>84</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7434,9 +6518,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>84</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,9 +6557,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>84</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7516,9 +6596,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>84</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,9 +6635,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>84</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7598,9 +6674,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>84</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7639,9 +6713,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>84</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7680,9 +6752,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>84</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7721,9 +6791,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>84</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,9 +6830,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>84</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,9 +6869,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>84</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7844,9 +6908,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>84</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,9 +6947,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>84</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7926,9 +6986,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>84</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7967,9 +7025,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>84</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8008,9 +7064,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>84</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8049,9 +7103,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>84</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8090,9 +7142,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>84</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,9 +7181,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>84</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,9 +7220,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>84</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8213,9 +7259,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>84</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8254,9 +7298,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>84</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8295,9 +7337,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>84</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8336,9 +7376,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>84</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8377,9 +7415,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>84</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8418,9 +7454,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>84</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8459,9 +7493,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>84</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8500,9 +7532,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>84</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8541,9 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>84</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8582,9 +7610,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>84</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8623,9 +7649,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>84</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8664,9 +7688,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>84</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8705,9 +7727,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>84</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,9 +7766,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>84</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8787,9 +7805,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>84</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8828,9 +7844,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>84</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,9 +7883,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>84</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8910,9 +7922,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>84</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8951,9 +7961,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>84</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,19 +7997,17 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>84</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>1.197380952380952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -9030,11 +8036,15 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -9069,7 +8079,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -9104,7 +8118,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -9139,7 +8157,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9174,7 +8196,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9209,7 +8235,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9244,7 +8274,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9279,7 +8313,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9314,7 +8352,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9349,7 +8391,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9384,7 +8430,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9419,7 +8469,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9454,7 +8508,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9489,7 +8547,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9520,11 +8582,15 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9555,11 +8621,15 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9590,11 +8660,15 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9625,14 +8699,16 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -10602,14 +9678,20 @@
         <v>100.85</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>100</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10644,7 +9726,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10679,7 +9765,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10714,7 +9804,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10749,7 +9843,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +9882,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10819,7 +9921,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10854,7 +9960,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10882,14 +9992,20 @@
         <v>100.95</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>101</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10917,14 +10033,20 @@
         <v>101</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>101</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10952,14 +10074,20 @@
         <v>101</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>101</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10987,14 +10115,20 @@
         <v>101.05</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>100</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11022,14 +10156,20 @@
         <v>101.05</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>100</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11057,14 +10197,20 @@
         <v>101.05</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>101</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11092,14 +10238,20 @@
         <v>101.05</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>101</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11134,7 +10286,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11169,7 +10325,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11204,7 +10364,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11239,7 +10403,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +10442,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11309,7 +10481,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11344,7 +10520,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11379,7 +10559,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11414,7 +10598,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11449,7 +10637,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11484,7 +10676,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11519,7 +10715,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11554,7 +10754,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11589,7 +10793,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11624,7 +10832,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11659,7 +10871,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11694,7 +10910,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11729,7 +10949,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11764,7 +10988,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11799,7 +11027,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11834,7 +11066,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11869,7 +11105,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11904,7 +11144,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +11183,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11974,7 +11222,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -12009,7 +11261,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12044,7 +11300,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12079,7 +11339,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12114,7 +11378,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12149,7 +11417,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12184,7 +11456,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12219,7 +11495,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12254,7 +11534,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12289,7 +11573,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12324,7 +11612,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12359,7 +11651,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12394,7 +11690,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12429,7 +11729,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12464,7 +11768,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12499,7 +11807,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12534,7 +11846,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12569,7 +11885,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12604,7 +11924,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12639,7 +11963,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12674,7 +12002,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12709,7 +12041,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12744,7 +12080,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12779,7 +12119,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12814,7 +12158,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12849,7 +12197,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12884,7 +12236,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12919,7 +12275,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12954,7 +12314,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12989,7 +12353,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13024,7 +12392,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13059,7 +12431,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +12470,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13129,7 +12509,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13164,7 +12548,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13199,7 +12587,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13234,7 +12626,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13269,7 +12665,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13304,7 +12704,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13339,7 +12743,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13374,7 +12782,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13409,7 +12821,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13444,7 +12860,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13479,7 +12899,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13514,7 +12938,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13549,7 +12977,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13584,7 +13016,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13619,7 +13055,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13654,7 +13094,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13689,7 +13133,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13724,7 +13172,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13759,7 +13211,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13794,7 +13250,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13829,7 +13289,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13864,7 +13328,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13899,7 +13367,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13934,7 +13406,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13969,7 +13445,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -14004,7 +13484,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14039,7 +13523,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14074,7 +13562,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14109,7 +13601,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14144,7 +13640,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14179,7 +13679,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14214,7 +13718,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +13757,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14284,7 +13796,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14319,7 +13835,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14354,7 +13874,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14389,7 +13913,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14424,7 +13952,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14459,7 +13991,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14494,7 +14030,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14529,7 +14069,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14564,7 +14108,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14599,7 +14147,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14634,7 +14186,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +14225,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14704,7 +14264,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14739,7 +14303,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14774,7 +14342,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14809,7 +14381,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14844,7 +14420,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14879,7 +14459,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14914,7 +14498,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14949,7 +14537,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14984,7 +14576,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -15019,7 +14615,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -15054,7 +14654,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -15089,7 +14693,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -15124,7 +14732,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -15159,7 +14771,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15194,7 +14810,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15229,7 +14849,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15264,7 +14888,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15299,7 +14927,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15334,7 +14966,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15369,7 +15005,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15044,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15439,7 +15083,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15474,7 +15122,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15509,7 +15161,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15544,7 +15200,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15579,7 +15239,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15614,7 +15278,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15649,7 +15317,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15684,7 +15356,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15719,7 +15395,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15754,7 +15434,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15789,7 +15473,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15824,7 +15512,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15859,7 +15551,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15894,7 +15590,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15929,7 +15629,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15964,7 +15668,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15999,7 +15707,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -16034,7 +15746,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16069,7 +15785,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16104,7 +15824,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16139,7 +15863,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16174,7 +15902,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16209,7 +15941,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16244,7 +15980,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16279,7 +16019,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16314,7 +16058,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16349,7 +16097,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16384,7 +16136,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16419,7 +16175,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16454,7 +16214,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16482,14 +16246,20 @@
         <v>92.83</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>91.8</v>
+      </c>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16517,14 +16287,20 @@
         <v>92.78</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>93</v>
+      </c>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16552,14 +16328,20 @@
         <v>92.69</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>92</v>
+      </c>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16587,14 +16369,20 @@
         <v>92.63000000000001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>91.8</v>
+      </c>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16622,14 +16410,20 @@
         <v>92.63500000000001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>93</v>
+      </c>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16657,14 +16451,20 @@
         <v>92.59</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>92.09999999999999</v>
+      </c>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16692,14 +16492,20 @@
         <v>92.52500000000001</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>92.09999999999999</v>
+      </c>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16734,7 +16540,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16762,14 +16572,20 @@
         <v>92.59999999999999</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>94.40000000000001</v>
+      </c>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16804,7 +16620,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16839,7 +16659,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16874,7 +16698,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16909,7 +16737,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16944,7 +16776,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +16815,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17014,7 +16854,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17049,7 +16893,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17084,7 +16932,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17119,7 +16971,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17154,7 +17010,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17189,7 +17049,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17224,7 +17088,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17259,7 +17127,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17294,7 +17166,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17329,7 +17205,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17364,7 +17244,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17399,7 +17283,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17434,7 +17322,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17469,7 +17361,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17504,7 +17400,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17539,7 +17439,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17574,7 +17478,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17609,7 +17517,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17644,7 +17556,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17679,7 +17595,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +17634,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17749,7 +17673,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17784,7 +17712,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17819,7 +17751,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17854,7 +17790,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17889,7 +17829,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17924,7 +17868,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17959,7 +17907,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17994,7 +17946,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18029,7 +17985,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18064,7 +18024,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18099,7 +18063,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18134,7 +18102,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18169,7 +18141,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18204,7 +18180,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18239,7 +18219,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18274,7 +18258,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18309,7 +18297,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18344,7 +18336,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18379,7 +18375,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18414,7 +18414,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18449,7 +18453,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18484,7 +18492,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18519,7 +18531,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18554,7 +18570,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18589,7 +18609,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18624,7 +18648,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18659,7 +18687,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18694,7 +18726,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18729,7 +18765,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18764,7 +18804,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18799,7 +18843,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18834,7 +18882,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +18921,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18904,7 +18960,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18939,7 +18999,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18974,7 +19038,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19009,7 +19077,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19044,7 +19116,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19079,7 +19155,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19114,7 +19194,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19149,7 +19233,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19184,7 +19272,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19219,7 +19311,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19254,7 +19350,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19289,7 +19389,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19324,7 +19428,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19359,7 +19467,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19394,7 +19506,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19429,7 +19545,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19464,7 +19584,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19499,7 +19623,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19534,7 +19662,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19569,7 +19701,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19604,7 +19740,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19639,7 +19779,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19674,7 +19818,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19709,7 +19857,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19744,7 +19896,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19779,7 +19935,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19814,7 +19974,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19849,7 +20013,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19884,7 +20052,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19919,7 +20091,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19954,7 +20130,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19989,7 +20169,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20208,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20059,7 +20247,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20094,7 +20286,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20129,7 +20325,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20164,7 +20364,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20199,7 +20403,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20234,7 +20442,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20269,7 +20481,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20304,7 +20520,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20339,7 +20559,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20374,7 +20598,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20409,7 +20637,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20444,7 +20676,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20479,7 +20715,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20514,7 +20754,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20549,7 +20793,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20584,7 +20832,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20619,7 +20871,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20654,7 +20910,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20689,7 +20949,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20724,7 +20988,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20759,7 +21027,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20794,7 +21066,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20829,7 +21105,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20864,7 +21144,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20899,7 +21183,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20934,7 +21222,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20969,7 +21261,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21004,7 +21300,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21039,7 +21339,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21074,7 +21378,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21109,7 +21417,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21144,7 +21456,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21495,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21207,14 +21527,20 @@
         <v>93.90499999999999</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>92</v>
+      </c>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21242,14 +21568,20 @@
         <v>93.77499999999998</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>92.3</v>
+      </c>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21277,14 +21609,20 @@
         <v>93.60499999999998</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>92.3</v>
+      </c>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21312,14 +21650,20 @@
         <v>93.41499999999998</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>92.3</v>
+      </c>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21347,14 +21691,20 @@
         <v>93.27499999999998</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>92.3</v>
+      </c>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21382,14 +21732,20 @@
         <v>93.15999999999998</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>93.40000000000001</v>
+      </c>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21417,14 +21773,20 @@
         <v>93.12999999999998</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>93.40000000000001</v>
+      </c>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21452,14 +21814,20 @@
         <v>93.05499999999998</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>93.40000000000001</v>
+      </c>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21487,14 +21855,20 @@
         <v>93.09999999999999</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>94.40000000000001</v>
+      </c>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21522,14 +21896,20 @@
         <v>93.11499999999998</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>94.40000000000001</v>
+      </c>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21564,7 +21944,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21599,7 +21983,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21634,7 +22022,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21669,7 +22061,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21704,7 +22100,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21739,7 +22139,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21774,7 +22178,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21809,7 +22217,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21844,7 +22256,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21879,7 +22295,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21914,7 +22334,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21949,7 +22373,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21984,7 +22412,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22019,7 +22451,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22054,7 +22490,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22089,7 +22529,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22124,7 +22568,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22159,7 +22607,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22194,7 +22646,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22229,7 +22685,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22264,7 +22724,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22299,7 +22763,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +22802,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22369,7 +22841,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22404,7 +22880,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest PAY.xlsx
+++ b/BackTest/2019-10-28 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>83.90000000000001</v>
@@ -521,7 +521,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>83.90000000000001</v>
@@ -562,7 +562,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>83.90000000000001</v>
@@ -603,7 +603,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>83.90000000000001</v>
@@ -644,7 +644,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>83.90000000000001</v>
@@ -685,7 +685,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>83.90000000000001</v>
@@ -726,7 +726,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>83.90000000000001</v>
@@ -767,7 +767,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>83.90000000000001</v>
@@ -808,7 +808,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>83.90000000000001</v>
@@ -849,7 +849,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>83.90000000000001</v>
@@ -890,7 +890,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>83.90000000000001</v>
@@ -931,7 +931,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>83.90000000000001</v>
@@ -972,7 +972,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>83.90000000000001</v>
@@ -1013,7 +1013,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>83.90000000000001</v>
@@ -1054,7 +1054,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>83.90000000000001</v>
@@ -1095,7 +1095,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>83.90000000000001</v>
@@ -1136,7 +1136,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>83.90000000000001</v>
@@ -1177,7 +1177,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>83.90000000000001</v>
@@ -1218,7 +1218,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>83.90000000000001</v>
@@ -1259,7 +1259,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>83.90000000000001</v>
@@ -1300,7 +1300,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>83.90000000000001</v>
@@ -1341,7 +1341,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>83.90000000000001</v>
@@ -1382,7 +1382,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>83.90000000000001</v>
@@ -1423,7 +1423,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>83.90000000000001</v>
@@ -1464,7 +1464,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>83.90000000000001</v>
@@ -1505,7 +1505,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>83.90000000000001</v>
@@ -1546,7 +1546,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>83.90000000000001</v>
@@ -1587,7 +1587,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>83.90000000000001</v>
@@ -1628,7 +1628,7 @@
         <v>101368.2762531401</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>83.90000000000001</v>
@@ -1669,7 +1669,7 @@
         <v>102293.2762531401</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>83.90000000000001</v>
@@ -1710,7 +1710,7 @@
         <v>102293.2762531401</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>84</v>
@@ -1751,7 +1751,7 @@
         <v>102293.2762531401</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>84</v>
@@ -1792,7 +1792,7 @@
         <v>116829.8158531401</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>84</v>
@@ -1833,7 +1833,7 @@
         <v>116839.8158531401</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>84.5</v>
@@ -1874,7 +1874,7 @@
         <v>116818.8158531401</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>85.09999999999999</v>
@@ -1915,7 +1915,7 @@
         <v>116828.8158531401</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>83.8</v>
@@ -1956,7 +1956,7 @@
         <v>118659.7433531401</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>85.09999999999999</v>
@@ -1997,7 +1997,7 @@
         <v>118097.4069531401</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>85.8</v>
@@ -2038,7 +2038,7 @@
         <v>118107.4069531401</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>85.59999999999999</v>
@@ -2079,7 +2079,7 @@
         <v>117874.0347244353</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>85.8</v>
@@ -2120,7 +2120,7 @@
         <v>119074.0347244353</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>85.7</v>
@@ -2161,7 +2161,7 @@
         <v>123310.0347244353</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>85.90000000000001</v>
@@ -2202,7 +2202,7 @@
         <v>120786.4421244353</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>86</v>
@@ -2243,7 +2243,7 @@
         <v>120889.0456244353</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>85.90000000000001</v>
@@ -2284,7 +2284,7 @@
         <v>120791.6491244353</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>86</v>
@@ -2325,7 +2325,7 @@
         <v>121191.6491244353</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>85.90000000000001</v>
@@ -2366,7 +2366,7 @@
         <v>121191.6491244353</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>86</v>
@@ -2407,7 +2407,7 @@
         <v>121991.6491244353</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>86</v>
@@ -2448,7 +2448,7 @@
         <v>121991.6491244353</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>86.59999999999999</v>
@@ -2489,7 +2489,7 @@
         <v>112327.2607244353</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>86.59999999999999</v>
@@ -2530,7 +2530,7 @@
         <v>108516.2607244353</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>85.3</v>
@@ -2571,7 +2571,7 @@
         <v>90943.19442443532</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>85</v>
@@ -2612,7 +2612,7 @@
         <v>90143.19442443532</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>84.09999999999999</v>
@@ -2653,7 +2653,7 @@
         <v>45811.71132443532</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>84</v>
@@ -2694,7 +2694,7 @@
         <v>58462.32692443532</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>83.2</v>
@@ -2735,7 +2735,7 @@
         <v>63557.11362443532</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>84</v>
@@ -2776,7 +2776,7 @@
         <v>49123.41932443532</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>84.40000000000001</v>
@@ -2817,7 +2817,7 @@
         <v>45372.41932443532</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>84.2</v>
@@ -2858,7 +2858,7 @@
         <v>45372.41932443532</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>84</v>
@@ -2899,7 +2899,7 @@
         <v>45372.41932443532</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>84</v>
@@ -2940,7 +2940,7 @@
         <v>45372.41932443532</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>84</v>
@@ -2981,7 +2981,7 @@
         <v>45372.41932443532</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>84</v>
@@ -3022,7 +3022,7 @@
         <v>45372.41932443532</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>84</v>
@@ -3063,7 +3063,7 @@
         <v>143789.9150244353</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>84</v>
@@ -3104,7 +3104,7 @@
         <v>143814.6392244353</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>85</v>
@@ -3145,7 +3145,7 @@
         <v>143814.6392244353</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>85.09999999999999</v>
@@ -3186,9 +3186,11 @@
         <v>143850.7231244353</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>85.09999999999999</v>
+      </c>
       <c r="J69" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3225,9 +3227,11 @@
         <v>101891.6342244353</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>85.7</v>
+      </c>
       <c r="J70" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>91396.01902443531</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>85.59999999999999</v>
@@ -3305,7 +3309,7 @@
         <v>91396.01902443531</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>85</v>
@@ -3346,9 +3350,11 @@
         <v>91406.01902443531</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>85</v>
+      </c>
       <c r="J73" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>54857.36192443532</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>85.7</v>
@@ -3426,7 +3432,7 @@
         <v>54867.36192443532</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>85</v>
@@ -3467,9 +3473,11 @@
         <v>54579.36192443532</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>85.59999999999999</v>
+      </c>
       <c r="J76" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3506,7 +3514,7 @@
         <v>54589.36192443532</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>85</v>
@@ -3547,7 +3555,7 @@
         <v>47334.36192443532</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>85.40000000000001</v>
@@ -3588,7 +3596,7 @@
         <v>47696.76232443532</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>85.3</v>
@@ -3629,7 +3637,7 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>85.40000000000001</v>
@@ -3670,9 +3678,11 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>85</v>
+      </c>
       <c r="J81" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3709,7 +3719,7 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>85</v>
@@ -3750,7 +3760,7 @@
         <v>46423.76232443532</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>85</v>
@@ -3791,7 +3801,7 @@
         <v>46433.76232443532</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>84</v>
@@ -3832,7 +3842,7 @@
         <v>47232.76232443532</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>85.8</v>
@@ -3873,9 +3883,11 @@
         <v>53567.76232443532</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>86</v>
+      </c>
       <c r="J86" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3912,9 +3924,11 @@
         <v>50767.76232443532</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>86.3</v>
+      </c>
       <c r="J87" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3951,9 +3965,11 @@
         <v>79006.26892443531</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>85.8</v>
+      </c>
       <c r="J88" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3990,9 +4006,11 @@
         <v>79405.87862443531</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>86</v>
+      </c>
       <c r="J89" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4029,9 +4047,11 @@
         <v>68120.45502443532</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>86.09999999999999</v>
+      </c>
       <c r="J90" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4068,9 +4088,11 @@
         <v>67996.34802443531</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>86</v>
+      </c>
       <c r="J91" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4107,9 +4129,11 @@
         <v>68106.34802443531</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>85.7</v>
+      </c>
       <c r="J92" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4146,9 +4170,11 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>86</v>
+      </c>
       <c r="J93" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4185,9 +4211,11 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>86.40000000000001</v>
+      </c>
       <c r="J94" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4224,9 +4252,11 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>86.40000000000001</v>
+      </c>
       <c r="J95" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4302,9 +4332,11 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>86.40000000000001</v>
+      </c>
       <c r="J97" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4341,9 +4373,11 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>86.40000000000001</v>
+      </c>
       <c r="J98" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4380,9 +4414,11 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>86.40000000000001</v>
+      </c>
       <c r="J99" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4458,9 +4494,11 @@
         <v>99326.35929573054</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>86.59999999999999</v>
+      </c>
       <c r="J101" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4497,9 +4535,11 @@
         <v>105486.3592957305</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>86.7</v>
+      </c>
       <c r="J102" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4536,9 +4576,11 @@
         <v>105486.3592957305</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>87</v>
+      </c>
       <c r="J103" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4614,9 +4656,11 @@
         <v>105486.3592957305</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>87</v>
+      </c>
       <c r="J105" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4770,9 +4814,11 @@
         <v>120430.4439957305</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>87.40000000000001</v>
+      </c>
       <c r="J109" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4809,9 +4855,11 @@
         <v>120430.4439957305</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>87.5</v>
+      </c>
       <c r="J110" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4848,9 +4896,11 @@
         <v>120430.4439957305</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>87.5</v>
+      </c>
       <c r="J111" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5355,9 +5405,11 @@
         <v>135695.3337936804</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J124" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5394,9 +5446,11 @@
         <v>138026.3337936804</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J125" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5433,9 +5487,11 @@
         <v>138026.3337936804</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J126" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5472,9 +5528,11 @@
         <v>138026.3337936804</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J127" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5511,9 +5569,11 @@
         <v>124702.0717936804</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J128" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5550,9 +5610,11 @@
         <v>124702.0717936804</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J129" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5589,9 +5651,11 @@
         <v>124702.0717936804</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J130" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5667,9 +5731,11 @@
         <v>126324.6551936804</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>87.8</v>
+      </c>
       <c r="J132" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5706,9 +5772,11 @@
         <v>126324.6551936804</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J133" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5862,9 +5930,11 @@
         <v>129205.5382936804</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>85.8</v>
+      </c>
       <c r="J137" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5901,9 +5971,11 @@
         <v>134212.7473936804</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>86.7</v>
+      </c>
       <c r="J138" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5979,9 +6051,11 @@
         <v>134500.7473936804</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="J140" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6018,9 +6092,11 @@
         <v>133300.7473936804</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="J141" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6330,9 +6406,11 @@
         <v>125173.7748936804</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>85.59999999999999</v>
+      </c>
       <c r="J149" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6447,9 +6525,11 @@
         <v>121575.9167936804</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>85.7</v>
+      </c>
       <c r="J152" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6486,9 +6566,11 @@
         <v>121575.9167936804</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>85.59999999999999</v>
+      </c>
       <c r="J153" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6525,9 +6607,11 @@
         <v>109826.1241936804</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>85.59999999999999</v>
+      </c>
       <c r="J154" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6564,9 +6648,11 @@
         <v>95287.84149368042</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>85.09999999999999</v>
+      </c>
       <c r="J155" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6603,9 +6689,11 @@
         <v>95287.84149368042</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J156" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6642,9 +6730,11 @@
         <v>95287.84149368042</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J157" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6681,9 +6771,11 @@
         <v>92758.70619368042</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J158" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6720,9 +6812,11 @@
         <v>78770.09369368042</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>84.7</v>
+      </c>
       <c r="J159" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6759,9 +6853,11 @@
         <v>84118.90559368042</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>84.5</v>
+      </c>
       <c r="J160" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6798,9 +6894,11 @@
         <v>83318.90559368042</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>85.09999999999999</v>
+      </c>
       <c r="J161" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6837,9 +6935,11 @@
         <v>85440.90559368042</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>84.59999999999999</v>
+      </c>
       <c r="J162" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6876,9 +6976,11 @@
         <v>85440.90559368042</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>84.7</v>
+      </c>
       <c r="J163" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6915,9 +7017,11 @@
         <v>166684.3796936804</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>84.7</v>
+      </c>
       <c r="J164" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6954,9 +7058,11 @@
         <v>166684.3796936804</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J165" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6993,9 +7099,11 @@
         <v>166281.2667936804</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J166" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7032,9 +7140,11 @@
         <v>151319.9407936804</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>84.8</v>
+      </c>
       <c r="J167" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7071,9 +7181,11 @@
         <v>146108.1376936804</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>84.7</v>
+      </c>
       <c r="J168" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7110,9 +7222,11 @@
         <v>129818.6943936804</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>84.59999999999999</v>
+      </c>
       <c r="J169" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7149,9 +7263,11 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>84.5</v>
+      </c>
       <c r="J170" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7188,9 +7304,11 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>84.40000000000001</v>
+      </c>
       <c r="J171" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7227,9 +7345,11 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>84.40000000000001</v>
+      </c>
       <c r="J172" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7266,7 +7386,7 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>84.40000000000001</v>
@@ -7307,7 +7427,7 @@
         <v>71857.10049368044</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>84.40000000000001</v>
@@ -7348,7 +7468,7 @@
         <v>72857.93999368044</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>84.3</v>
@@ -7389,7 +7509,7 @@
         <v>72857.93999368044</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>84.59999999999999</v>
@@ -7430,7 +7550,7 @@
         <v>72868.05999368044</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>84.59999999999999</v>
@@ -7471,7 +7591,7 @@
         <v>72868.05999368044</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>84.7</v>
@@ -7512,9 +7632,11 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>84.7</v>
+      </c>
       <c r="J179" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7551,9 +7673,11 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J180" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7590,9 +7714,11 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J181" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7629,9 +7755,11 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J182" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7668,9 +7796,11 @@
         <v>73209.10589368045</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J183" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7707,9 +7837,11 @@
         <v>73209.10589368045</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>85.09999999999999</v>
+      </c>
       <c r="J184" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7746,9 +7878,11 @@
         <v>73209.10589368045</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>85.09999999999999</v>
+      </c>
       <c r="J185" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7785,7 +7919,7 @@
         <v>69768.82399368045</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>85.09999999999999</v>
@@ -7826,9 +7960,11 @@
         <v>69784.73649368045</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J187" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7865,9 +8001,11 @@
         <v>63667.00629368045</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J188" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7904,9 +8042,11 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>84.90000000000001</v>
+      </c>
       <c r="J189" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7943,9 +8083,11 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J190" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7982,9 +8124,11 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J191" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8021,9 +8165,11 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J192" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8060,9 +8206,11 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J193" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8099,9 +8247,11 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J194" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8138,9 +8288,11 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J195" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8177,9 +8329,11 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J196" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8216,9 +8370,11 @@
         <v>11411.44999368046</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J197" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8255,9 +8411,11 @@
         <v>12611.44999368046</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>84.5</v>
+      </c>
       <c r="J198" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8294,9 +8452,11 @@
         <v>4991.449993680457</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>85.2</v>
+      </c>
       <c r="J199" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8333,9 +8493,11 @@
         <v>4991.449993680457</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>85</v>
+      </c>
       <c r="J200" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8372,9 +8534,11 @@
         <v>9116.449993680457</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>85</v>
+      </c>
       <c r="J201" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8411,9 +8575,11 @@
         <v>9116.449993680457</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>85.3</v>
+      </c>
       <c r="J202" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8450,9 +8616,11 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>85.3</v>
+      </c>
       <c r="J203" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8489,9 +8657,11 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>86</v>
+      </c>
       <c r="J204" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8528,9 +8698,11 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>86</v>
+      </c>
       <c r="J205" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8567,9 +8739,11 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>86</v>
+      </c>
       <c r="J206" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8606,9 +8780,11 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J207" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8645,9 +8821,11 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J208" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8684,9 +8862,11 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>86</v>
+      </c>
       <c r="J209" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8723,9 +8903,11 @@
         <v>21544.49899368046</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>86</v>
+      </c>
       <c r="J210" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8762,9 +8944,11 @@
         <v>-47589.34780631954</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J211" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8801,9 +8985,11 @@
         <v>-46389.34780631954</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>85</v>
+      </c>
       <c r="J212" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8840,9 +9026,11 @@
         <v>-46389.34780631954</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>85.8</v>
+      </c>
       <c r="J213" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8918,9 +9106,11 @@
         <v>-47006.76550631954</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>85</v>
+      </c>
       <c r="J215" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8957,9 +9147,11 @@
         <v>-86382.59020631954</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>85</v>
+      </c>
       <c r="J216" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8996,9 +9188,11 @@
         <v>-78442.59020631954</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>84.5</v>
+      </c>
       <c r="J217" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9035,9 +9229,11 @@
         <v>-78442.59020631954</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>85.7</v>
+      </c>
       <c r="J218" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9074,9 +9270,11 @@
         <v>-78432.49020631953</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>85.7</v>
+      </c>
       <c r="J219" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9113,9 +9311,11 @@
         <v>-76608.49930631953</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>86</v>
+      </c>
       <c r="J220" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9152,9 +9352,11 @@
         <v>-19108.49930631953</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>86.3</v>
+      </c>
       <c r="J221" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9191,9 +9393,11 @@
         <v>-22963.15980631953</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>87</v>
+      </c>
       <c r="J222" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9230,9 +9434,11 @@
         <v>-22963.15980631953</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>86.8</v>
+      </c>
       <c r="J223" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9269,9 +9475,11 @@
         <v>-22963.15980631953</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>86.8</v>
+      </c>
       <c r="J224" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9308,9 +9516,11 @@
         <v>-24763.15980631953</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>86.8</v>
+      </c>
       <c r="J225" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9347,9 +9557,11 @@
         <v>-23761.90980631953</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>86.5</v>
+      </c>
       <c r="J226" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9386,9 +9598,11 @@
         <v>-17951.90980631953</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>86.59999999999999</v>
+      </c>
       <c r="J227" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9425,9 +9639,11 @@
         <v>-10649.90980631953</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>86.8</v>
+      </c>
       <c r="J228" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9464,9 +9680,11 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>87</v>
+      </c>
       <c r="J229" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9503,9 +9721,11 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J230" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9542,9 +9762,11 @@
         <v>-4150.453106319527</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J231" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9581,9 +9803,11 @@
         <v>2321.148693680473</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>87.90000000000001</v>
+      </c>
       <c r="J232" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9620,9 +9844,11 @@
         <v>3930.924041315608</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>88.7</v>
+      </c>
       <c r="J233" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9659,9 +9885,11 @@
         <v>65325.73534131561</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>88.8</v>
+      </c>
       <c r="J234" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -11414,7 +11642,7 @@
         <v>1003061.494635753</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
@@ -11422,15 +11650,13 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
-        <v>1.32992252681764</v>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11455,11 +11681,17 @@
         <v>1221344.912507683</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11491,8 +11723,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11521,11 +11759,17 @@
         <v>948766.5126076825</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11554,11 +11798,17 @@
         <v>930461.5697076825</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11590,8 +11840,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11623,8 +11879,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11656,8 +11918,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11689,8 +11957,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11722,8 +11996,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11752,11 +12032,17 @@
         <v>1103712.056616016</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11788,8 +12074,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11818,11 +12110,17 @@
         <v>897084.1055160158</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11854,8 +12152,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11887,8 +12191,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11917,15 +12227,23 @@
         <v>739109.7840160158</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+        <v>1.183319427890346</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -12115,7 +12433,7 @@
         <v>859363.2829160159</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12148,7 +12466,7 @@
         <v>859363.2829160159</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12181,7 +12499,7 @@
         <v>833976.7690160159</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12214,7 +12532,7 @@
         <v>848291.5733160159</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12247,7 +12565,7 @@
         <v>848291.5733160159</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12280,7 +12598,7 @@
         <v>832762.7552160159</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12313,7 +12631,7 @@
         <v>834385.8630591531</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12346,7 +12664,7 @@
         <v>834318.8630591531</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12379,7 +12697,7 @@
         <v>803416.7876591531</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12412,7 +12730,7 @@
         <v>803416.7876591531</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12445,7 +12763,7 @@
         <v>809292.4514591531</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12478,7 +12796,7 @@
         <v>827479.0358591531</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12511,7 +12829,7 @@
         <v>827479.0358591531</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12544,7 +12862,7 @@
         <v>827479.0358591531</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12577,7 +12895,7 @@
         <v>819526.5606591532</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12610,7 +12928,7 @@
         <v>825751.1445591531</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12643,7 +12961,7 @@
         <v>789236.7003591531</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12676,7 +12994,7 @@
         <v>789236.7003591531</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12709,7 +13027,7 @@
         <v>789236.7003591531</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12742,7 +13060,7 @@
         <v>789236.7003591531</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12775,7 +13093,7 @@
         <v>781536.0970591531</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12808,7 +13126,7 @@
         <v>781536.0970591531</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12841,7 +13159,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12874,7 +13192,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12907,7 +13225,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12940,7 +13258,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12973,7 +13291,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -13006,7 +13324,7 @@
         <v>820254.6407591532</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -13039,7 +13357,7 @@
         <v>820199.6407591532</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -13072,7 +13390,7 @@
         <v>820209.6407591532</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13105,7 +13423,7 @@
         <v>820187.6407591532</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13138,7 +13456,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13171,7 +13489,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13204,7 +13522,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13237,7 +13555,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13270,7 +13588,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13303,7 +13621,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13336,7 +13654,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13369,7 +13687,7 @@
         <v>795141.5673591531</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13402,7 +13720,7 @@
         <v>724634.2358591531</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13435,7 +13753,7 @@
         <v>638731.8210591531</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13468,7 +13786,7 @@
         <v>604813.0966591531</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13501,7 +13819,7 @@
         <v>605223.0966591531</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13534,7 +13852,7 @@
         <v>598510.7388591531</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13567,7 +13885,7 @@
         <v>580453.8314591531</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13600,7 +13918,7 @@
         <v>611477.8314591531</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13633,7 +13951,7 @@
         <v>611477.8314591531</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13666,7 +13984,7 @@
         <v>606477.8314591531</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13699,7 +14017,7 @@
         <v>606477.8314591531</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13732,7 +14050,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13765,7 +14083,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13798,7 +14116,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13831,7 +14149,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13864,7 +14182,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13897,7 +14215,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13930,7 +14248,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13963,7 +14281,7 @@
         <v>586387.4662591531</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13996,7 +14314,7 @@
         <v>586387.4662591531</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14029,7 +14347,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14062,7 +14380,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14095,7 +14413,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14128,7 +14446,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14161,7 +14479,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14194,7 +14512,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14227,7 +14545,7 @@
         <v>620061.7704591531</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14260,7 +14578,7 @@
         <v>620061.7704591531</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14293,7 +14611,7 @@
         <v>619661.7704591531</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14326,7 +14644,7 @@
         <v>619661.7704591531</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14359,7 +14677,7 @@
         <v>618415.9727591531</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14392,7 +14710,7 @@
         <v>618434.9727591531</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14425,7 +14743,7 @@
         <v>618434.9727591531</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14458,7 +14776,7 @@
         <v>618434.9727591531</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14491,7 +14809,7 @@
         <v>618121.5353217156</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14524,7 +14842,7 @@
         <v>618521.5353217156</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14557,7 +14875,7 @@
         <v>617321.5353217156</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14590,7 +14908,7 @@
         <v>680176.2799217156</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14623,7 +14941,7 @@
         <v>678976.2799217156</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14656,7 +14974,7 @@
         <v>678976.2799217156</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14722,7 +15040,7 @@
         <v>710044.8565217156</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -15316,7 +15634,7 @@
         <v>720387.5589217156</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15349,7 +15667,7 @@
         <v>641274.1448217155</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15415,7 +15733,7 @@
         <v>650150.1794217156</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15448,7 +15766,7 @@
         <v>647108.4108217156</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -16504,7 +16822,7 @@
         <v>651532.536894088</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16537,7 +16855,7 @@
         <v>700980.843594088</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16570,7 +16888,7 @@
         <v>698628.108394088</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16735,7 +17053,7 @@
         <v>742313.171394088</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16768,7 +17086,7 @@
         <v>724992.0490940879</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16801,7 +17119,7 @@
         <v>775339.9486928819</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16834,7 +17152,7 @@
         <v>775327.9486928819</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16867,7 +17185,7 @@
         <v>770488.9486928819</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16900,7 +17218,7 @@
         <v>765783.2318789846</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16933,7 +17251,7 @@
         <v>761705.9813789846</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16966,7 +17284,7 @@
         <v>791751.4972789846</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -18748,7 +19066,7 @@
         <v>716211.4850516872</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18781,7 +19099,7 @@
         <v>716784.1525516872</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18814,7 +19132,7 @@
         <v>715178.2302516872</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18847,7 +19165,7 @@
         <v>703070.5982516872</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18880,7 +19198,7 @@
         <v>703184.5982516872</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18913,7 +19231,7 @@
         <v>702796.2724516873</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18946,7 +19264,7 @@
         <v>702985.8124516873</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18979,7 +19297,7 @@
         <v>702985.8124516873</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19012,7 +19330,7 @@
         <v>681857.3562516873</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19045,7 +19363,7 @@
         <v>682422.6795516873</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19144,7 +19462,7 @@
         <v>682355.9768516873</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19177,7 +19495,7 @@
         <v>687192.2378516874</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19210,7 +19528,7 @@
         <v>695405.8836516874</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19243,7 +19561,7 @@
         <v>692995.8836516874</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19276,7 +19594,7 @@
         <v>693009.2936516874</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19309,7 +19627,7 @@
         <v>693009.2936516874</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19342,7 +19660,7 @@
         <v>688126.9829516874</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19375,7 +19693,7 @@
         <v>688126.9829516874</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19408,7 +19726,7 @@
         <v>688126.9829516874</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19441,7 +19759,7 @@
         <v>685559.4600516874</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19474,7 +19792,7 @@
         <v>685559.4600516874</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19507,7 +19825,7 @@
         <v>685625.4600516874</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19540,7 +19858,7 @@
         <v>668202.3521516875</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19573,7 +19891,7 @@
         <v>668828.0367516875</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19606,7 +19924,7 @@
         <v>668728.0367516875</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19639,7 +19957,7 @@
         <v>653773.0324516875</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19672,7 +19990,7 @@
         <v>655023.5434516876</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19705,7 +20023,7 @@
         <v>655023.5434516876</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19738,7 +20056,7 @@
         <v>627345.3533516875</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19771,7 +20089,7 @@
         <v>627345.3533516875</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19804,7 +20122,7 @@
         <v>627357.8474516876</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19837,7 +20155,7 @@
         <v>560649.3827516875</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19870,7 +20188,7 @@
         <v>560660.0327516876</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19903,7 +20221,7 @@
         <v>559022.0327516876</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19936,7 +20254,7 @@
         <v>559022.0327516876</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19969,7 +20287,7 @@
         <v>559022.0327516876</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20002,7 +20320,7 @@
         <v>560775.2625516875</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20068,7 +20386,7 @@
         <v>560854.0525516876</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20101,7 +20419,7 @@
         <v>560854.0525516876</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20134,7 +20452,7 @@
         <v>560953.0525516876</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20167,7 +20485,7 @@
         <v>545738.6116516875</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20200,7 +20518,7 @@
         <v>529703.7538516875</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20233,7 +20551,7 @@
         <v>529703.7538516875</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20266,7 +20584,7 @@
         <v>529703.7538516875</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20299,7 +20617,7 @@
         <v>529603.7538516875</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20332,7 +20650,7 @@
         <v>530353.4714516875</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20365,7 +20683,7 @@
         <v>530363.5714516875</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20398,7 +20716,7 @@
         <v>530363.5714516875</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20431,7 +20749,7 @@
         <v>530421.7522516875</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20464,7 +20782,7 @@
         <v>527640.0146516875</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20497,7 +20815,7 @@
         <v>527590.0146516875</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20530,7 +20848,7 @@
         <v>518900.4770516875</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20563,7 +20881,7 @@
         <v>517273.7119516875</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20596,7 +20914,7 @@
         <v>517366.6479516875</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20629,7 +20947,7 @@
         <v>517366.6479516875</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20662,7 +20980,7 @@
         <v>517366.6479516875</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20728,7 +21046,7 @@
         <v>600701.7572516875</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20761,7 +21079,7 @@
         <v>602157.7572516875</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20794,7 +21112,7 @@
         <v>602157.7572516875</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20827,7 +21145,7 @@
         <v>602003.7572516875</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20860,7 +21178,7 @@
         <v>600261.8791516875</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20893,7 +21211,7 @@
         <v>600825.8791516875</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20926,7 +21244,7 @@
         <v>650288.7325516875</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20959,7 +21277,7 @@
         <v>650288.7325516875</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20992,7 +21310,7 @@
         <v>649778.1595516875</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21025,7 +21343,7 @@
         <v>648833.4095516875</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21058,7 +21376,7 @@
         <v>648844.4095516875</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21091,7 +21409,7 @@
         <v>645984.4138516876</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21124,7 +21442,7 @@
         <v>645984.4138516876</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21157,7 +21475,7 @@
         <v>646139.4138516876</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21190,7 +21508,7 @@
         <v>644528.4138516876</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21223,7 +21541,7 @@
         <v>644482.4138516876</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21256,7 +21574,7 @@
         <v>642871.4138516876</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21289,7 +21607,7 @@
         <v>642871.4138516876</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21322,7 +21640,7 @@
         <v>628108.0281516876</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21355,7 +21673,7 @@
         <v>657647.6688516876</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21388,7 +21706,7 @@
         <v>659424.6688516876</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21421,7 +21739,7 @@
         <v>659402.6688516876</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21454,7 +21772,7 @@
         <v>659457.6688516876</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21487,7 +21805,7 @@
         <v>661983.7167516876</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21520,7 +21838,7 @@
         <v>656358.5473516876</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21553,7 +21871,7 @@
         <v>638704.9233516876</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21586,7 +21904,7 @@
         <v>638704.9233516876</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21619,7 +21937,7 @@
         <v>651492.9233516876</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -23907,6 +24225,6 @@
       <c r="M657" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest PAY.xlsx
+++ b/BackTest/2019-10-28 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2325,11 +2325,9 @@
         <v>121191.6491244353</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2366,11 +2364,9 @@
         <v>121191.6491244353</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2407,11 +2403,9 @@
         <v>121991.6491244353</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2448,11 +2442,9 @@
         <v>121991.6491244353</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>86.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2489,11 +2481,9 @@
         <v>112327.2607244353</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>86.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2530,11 +2520,9 @@
         <v>108516.2607244353</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>85.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3104,11 +3092,9 @@
         <v>143814.6392244353</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3145,11 +3131,9 @@
         <v>143814.6392244353</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>85.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3186,11 +3170,9 @@
         <v>143850.7231244353</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>85.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3227,11 +3209,9 @@
         <v>101891.6342244353</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>85.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3268,11 +3248,9 @@
         <v>91396.01902443531</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>85.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3309,11 +3287,9 @@
         <v>91396.01902443531</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3350,11 +3326,9 @@
         <v>91406.01902443531</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3391,11 +3365,9 @@
         <v>54857.36192443532</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>85.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3432,11 +3404,9 @@
         <v>54867.36192443532</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3473,11 +3443,9 @@
         <v>54579.36192443532</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>85.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3514,11 +3482,9 @@
         <v>54589.36192443532</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3555,11 +3521,9 @@
         <v>47334.36192443532</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>85.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3596,11 +3560,9 @@
         <v>47696.76232443532</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>85.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3637,11 +3599,9 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3678,11 +3638,9 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3719,11 +3677,9 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3760,11 +3716,9 @@
         <v>46423.76232443532</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3801,11 +3755,9 @@
         <v>46433.76232443532</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3842,11 +3794,9 @@
         <v>47232.76232443532</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>85.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3883,11 +3833,9 @@
         <v>53567.76232443532</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3924,11 +3872,9 @@
         <v>50767.76232443532</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>86.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3965,11 +3911,9 @@
         <v>79006.26892443531</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>85.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4006,11 +3950,9 @@
         <v>79405.87862443531</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4047,11 +3989,9 @@
         <v>68120.45502443532</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>86.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4088,11 +4028,9 @@
         <v>67996.34802443531</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4129,11 +4067,9 @@
         <v>68106.34802443531</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>85.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4170,11 +4106,9 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4211,11 +4145,9 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>86.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4252,11 +4184,9 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>86.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4332,11 +4262,9 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>86.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4373,11 +4301,9 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>86.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4414,11 +4340,9 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4494,11 +4418,9 @@
         <v>99326.35929573054</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>86.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4535,11 +4457,9 @@
         <v>105486.3592957305</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>86.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4576,11 +4496,9 @@
         <v>105486.3592957305</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4656,11 +4574,9 @@
         <v>105486.3592957305</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4814,11 +4730,9 @@
         <v>120430.4439957305</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>87.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4855,11 +4769,9 @@
         <v>120430.4439957305</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -4896,11 +4808,9 @@
         <v>120430.4439957305</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5405,11 +5315,9 @@
         <v>135695.3337936804</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5446,11 +5354,9 @@
         <v>138026.3337936804</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>87.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5487,11 +5393,9 @@
         <v>138026.3337936804</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5528,11 +5432,9 @@
         <v>138026.3337936804</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5569,11 +5471,9 @@
         <v>124702.0717936804</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5610,11 +5510,9 @@
         <v>124702.0717936804</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>87.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5651,11 +5549,9 @@
         <v>124702.0717936804</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>87.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5731,11 +5627,9 @@
         <v>126324.6551936804</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>87.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5772,11 +5666,9 @@
         <v>126324.6551936804</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>87.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5930,11 +5822,9 @@
         <v>129205.5382936804</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>85.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -5971,11 +5861,9 @@
         <v>134212.7473936804</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>86.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6051,11 +5939,9 @@
         <v>134500.7473936804</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6092,11 +5978,9 @@
         <v>133300.7473936804</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6406,11 +6290,9 @@
         <v>125173.7748936804</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>85.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6525,11 +6407,9 @@
         <v>121575.9167936804</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>85.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6566,11 +6446,9 @@
         <v>121575.9167936804</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>85.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6607,11 +6485,9 @@
         <v>109826.1241936804</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>85.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6648,11 +6524,9 @@
         <v>95287.84149368042</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>85.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6689,11 +6563,9 @@
         <v>95287.84149368042</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6730,11 +6602,9 @@
         <v>95287.84149368042</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6771,11 +6641,9 @@
         <v>92758.70619368042</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6812,11 +6680,9 @@
         <v>78770.09369368042</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>84.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6853,11 +6719,9 @@
         <v>84118.90559368042</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>84.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6894,11 +6758,9 @@
         <v>83318.90559368042</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>85.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6935,11 +6797,9 @@
         <v>85440.90559368042</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>84.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6976,11 +6836,9 @@
         <v>85440.90559368042</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>84.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7058,11 +6916,9 @@
         <v>166684.3796936804</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7099,11 +6955,9 @@
         <v>166281.2667936804</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7140,11 +6994,9 @@
         <v>151319.9407936804</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>84.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7181,11 +7033,9 @@
         <v>146108.1376936804</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>84.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7222,11 +7072,9 @@
         <v>129818.6943936804</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>84.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7263,11 +7111,9 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>84.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7304,11 +7150,9 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>84.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7345,11 +7189,9 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>84.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7386,11 +7228,9 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>84.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7427,11 +7267,9 @@
         <v>71857.10049368044</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>84.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7468,11 +7306,9 @@
         <v>72857.93999368044</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>84.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7509,11 +7345,9 @@
         <v>72857.93999368044</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>84.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7550,11 +7384,9 @@
         <v>72868.05999368044</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>84.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7591,11 +7423,9 @@
         <v>72868.05999368044</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>84.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7632,11 +7462,9 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>84.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7673,11 +7501,9 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7714,11 +7540,9 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7755,11 +7579,9 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7796,11 +7618,9 @@
         <v>73209.10589368045</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7837,11 +7657,9 @@
         <v>73209.10589368045</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>85.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7878,11 +7696,9 @@
         <v>73209.10589368045</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>85.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7919,11 +7735,9 @@
         <v>69768.82399368045</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>85.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -7960,11 +7774,9 @@
         <v>69784.73649368045</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8001,11 +7813,9 @@
         <v>63667.00629368045</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8042,11 +7852,9 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>84.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8083,11 +7891,9 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8124,11 +7930,9 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8165,11 +7969,9 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8206,11 +8008,9 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8247,11 +8047,9 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8288,11 +8086,9 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8329,11 +8125,9 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8370,11 +8164,9 @@
         <v>11411.44999368046</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8411,11 +8203,9 @@
         <v>12611.44999368046</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>84.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8452,11 +8242,9 @@
         <v>4991.449993680457</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>85.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8493,11 +8281,9 @@
         <v>4991.449993680457</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8534,11 +8320,9 @@
         <v>9116.449993680457</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8575,11 +8359,9 @@
         <v>9116.449993680457</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>85.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8616,11 +8398,9 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>85.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8657,11 +8437,9 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8698,11 +8476,9 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8739,11 +8515,9 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8780,11 +8554,9 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8821,11 +8593,9 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8862,11 +8632,9 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8903,11 +8671,9 @@
         <v>21544.49899368046</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8944,11 +8710,9 @@
         <v>-47589.34780631954</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>85.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8985,11 +8749,9 @@
         <v>-46389.34780631954</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9026,11 +8788,9 @@
         <v>-46389.34780631954</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>85.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9106,11 +8866,9 @@
         <v>-47006.76550631954</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9147,11 +8905,9 @@
         <v>-86382.59020631954</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9188,11 +8944,9 @@
         <v>-78442.59020631954</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>84.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9229,11 +8983,9 @@
         <v>-78442.59020631954</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>85.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9270,11 +9022,9 @@
         <v>-78432.49020631953</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>85.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9311,11 +9061,9 @@
         <v>-76608.49930631953</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9352,11 +9100,9 @@
         <v>-19108.49930631953</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>86.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9393,11 +9139,9 @@
         <v>-22963.15980631953</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9434,11 +9178,9 @@
         <v>-22963.15980631953</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>86.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9475,11 +9217,9 @@
         <v>-22963.15980631953</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>86.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9516,11 +9256,9 @@
         <v>-24763.15980631953</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>86.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9557,11 +9295,9 @@
         <v>-23761.90980631953</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>86.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9598,11 +9334,9 @@
         <v>-17951.90980631953</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>86.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9639,11 +9373,9 @@
         <v>-10649.90980631953</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>86.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9680,11 +9412,9 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9721,11 +9451,9 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>87.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9762,11 +9490,9 @@
         <v>-4150.453106319527</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>87.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9803,11 +9529,9 @@
         <v>2321.148693680473</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>87.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9844,11 +9568,9 @@
         <v>3930.924041315608</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>88.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9885,11 +9607,9 @@
         <v>65325.73534131561</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>88.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -10784,7 +10504,7 @@
         <v>392703.8960522937</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
@@ -10792,13 +10512,15 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>1.157097735399285</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10823,17 +10545,11 @@
         <v>380204.5884522937</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10862,17 +10578,11 @@
         <v>367312.0592522937</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10901,17 +10611,11 @@
         <v>402193.0401522937</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10940,17 +10644,11 @@
         <v>544856.9854522938</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10979,17 +10677,11 @@
         <v>544856.9854522938</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -11018,17 +10710,11 @@
         <v>528086.5966522938</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -11057,17 +10743,11 @@
         <v>533832.2432522938</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -11096,17 +10776,11 @@
         <v>533832.2432522938</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -11135,17 +10809,11 @@
         <v>531114.7533522937</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -11174,17 +10842,11 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11213,17 +10875,11 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11252,17 +10908,11 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11291,17 +10941,11 @@
         <v>487816.7424394225</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11330,17 +10974,11 @@
         <v>503599.7263394225</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11369,17 +11007,11 @@
         <v>507476.4529394225</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11408,17 +11040,11 @@
         <v>502247.4655394225</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11447,17 +11073,11 @@
         <v>547481.5086394225</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11486,17 +11106,11 @@
         <v>446437.4780394225</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11525,17 +11139,11 @@
         <v>651532.6092394225</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11567,14 +11175,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11606,14 +11208,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11645,14 +11241,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11684,14 +11274,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11723,14 +11307,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11762,14 +11340,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11801,14 +11373,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11840,14 +11406,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11879,14 +11439,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11918,14 +11472,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11957,14 +11505,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11996,14 +11538,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -12035,14 +11571,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -12074,14 +11604,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -12110,17 +11634,11 @@
         <v>897084.1055160158</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -12152,14 +11670,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -12191,14 +11703,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12227,23 +11733,15 @@
         <v>739109.7840160158</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
-        <v>1.183319427890346</v>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -12433,7 +11931,7 @@
         <v>859363.2829160159</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12466,7 +11964,7 @@
         <v>859363.2829160159</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12499,7 +11997,7 @@
         <v>833976.7690160159</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12730,7 +12228,7 @@
         <v>803416.7876591531</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12763,7 +12261,7 @@
         <v>809292.4514591531</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12796,7 +12294,7 @@
         <v>827479.0358591531</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12829,7 +12327,7 @@
         <v>827479.0358591531</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12862,7 +12360,7 @@
         <v>827479.0358591531</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12895,7 +12393,7 @@
         <v>819526.5606591532</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12928,7 +12426,7 @@
         <v>825751.1445591531</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12961,7 +12459,7 @@
         <v>789236.7003591531</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12994,7 +12492,7 @@
         <v>789236.7003591531</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -13027,7 +12525,7 @@
         <v>789236.7003591531</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -13060,7 +12558,7 @@
         <v>789236.7003591531</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -13093,7 +12591,7 @@
         <v>781536.0970591531</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -13126,7 +12624,7 @@
         <v>781536.0970591531</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -13159,7 +12657,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -13192,7 +12690,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -13225,7 +12723,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -13258,7 +12756,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -13291,7 +12789,7 @@
         <v>789452.6407591532</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -13324,7 +12822,7 @@
         <v>820254.6407591532</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -13357,7 +12855,7 @@
         <v>820199.6407591532</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -13390,7 +12888,7 @@
         <v>820209.6407591532</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13423,7 +12921,7 @@
         <v>820187.6407591532</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13456,7 +12954,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13489,7 +12987,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13522,7 +13020,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13555,7 +13053,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13588,7 +13086,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13621,7 +13119,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13654,7 +13152,7 @@
         <v>814275.5550591531</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13687,7 +13185,7 @@
         <v>795141.5673591531</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13720,7 +13218,7 @@
         <v>724634.2358591531</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13753,7 +13251,7 @@
         <v>638731.8210591531</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13786,7 +13284,7 @@
         <v>604813.0966591531</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13819,7 +13317,7 @@
         <v>605223.0966591531</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13852,7 +13350,7 @@
         <v>598510.7388591531</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13885,7 +13383,7 @@
         <v>580453.8314591531</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13918,7 +13416,7 @@
         <v>611477.8314591531</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13951,7 +13449,7 @@
         <v>611477.8314591531</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13984,7 +13482,7 @@
         <v>606477.8314591531</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -14017,7 +13515,7 @@
         <v>606477.8314591531</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -14050,7 +13548,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -14083,7 +13581,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14116,7 +13614,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -14149,7 +13647,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14182,7 +13680,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14215,7 +13713,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14248,7 +13746,7 @@
         <v>610849.6541591531</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14281,7 +13779,7 @@
         <v>586387.4662591531</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14314,7 +13812,7 @@
         <v>586387.4662591531</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14347,7 +13845,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14380,7 +13878,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14413,7 +13911,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14446,7 +13944,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14479,7 +13977,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14512,7 +14010,7 @@
         <v>596669.4404591531</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14545,7 +14043,7 @@
         <v>620061.7704591531</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14578,7 +14076,7 @@
         <v>620061.7704591531</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14611,7 +14109,7 @@
         <v>619661.7704591531</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14644,7 +14142,7 @@
         <v>619661.7704591531</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14677,7 +14175,7 @@
         <v>618415.9727591531</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14710,7 +14208,7 @@
         <v>618434.9727591531</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14743,7 +14241,7 @@
         <v>618434.9727591531</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14776,7 +14274,7 @@
         <v>618434.9727591531</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14809,7 +14307,7 @@
         <v>618121.5353217156</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14842,7 +14340,7 @@
         <v>618521.5353217156</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14875,7 +14373,7 @@
         <v>617321.5353217156</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14908,7 +14406,7 @@
         <v>680176.2799217156</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14941,7 +14439,7 @@
         <v>678976.2799217156</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14974,7 +14472,7 @@
         <v>678976.2799217156</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -15040,7 +14538,7 @@
         <v>710044.8565217156</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -24225,6 +23723,6 @@
       <c r="M657" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest PAY.xlsx
+++ b/BackTest/2019-10-28 BackTest PAY.xlsx
@@ -2325,9 +2325,11 @@
         <v>121191.6491244353</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J48" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2364,9 +2366,11 @@
         <v>121191.6491244353</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>86</v>
+      </c>
       <c r="J49" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2403,9 +2407,11 @@
         <v>121991.6491244353</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>86</v>
+      </c>
       <c r="J50" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2442,9 +2448,11 @@
         <v>121991.6491244353</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>86.59999999999999</v>
+      </c>
       <c r="J51" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2481,9 +2489,11 @@
         <v>112327.2607244353</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>86.59999999999999</v>
+      </c>
       <c r="J52" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -2520,9 +2530,11 @@
         <v>108516.2607244353</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>85.3</v>
+      </c>
       <c r="J53" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3092,9 +3104,11 @@
         <v>143814.6392244353</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>85</v>
+      </c>
       <c r="J67" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3755,9 +3769,11 @@
         <v>46433.76232443532</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>84</v>
+      </c>
       <c r="J84" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3833,9 +3849,11 @@
         <v>53567.76232443532</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>86</v>
+      </c>
       <c r="J86" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -3911,9 +3929,11 @@
         <v>79006.26892443531</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>85.8</v>
+      </c>
       <c r="J88" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -6875,11 +6895,9 @@
         <v>166684.3796936804</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>84.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8359,9 +8377,11 @@
         <v>9116.449993680457</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>85.3</v>
+      </c>
       <c r="J202" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8398,9 +8418,11 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>85.3</v>
+      </c>
       <c r="J203" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8437,9 +8459,11 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>86</v>
+      </c>
       <c r="J204" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8476,9 +8500,11 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>86</v>
+      </c>
       <c r="J205" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8515,9 +8541,11 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>86</v>
+      </c>
       <c r="J206" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8554,9 +8582,11 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J207" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8593,9 +8623,11 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J208" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8632,9 +8664,11 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>86</v>
+      </c>
       <c r="J209" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8671,9 +8705,11 @@
         <v>21544.49899368046</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>86</v>
+      </c>
       <c r="J210" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -8710,9 +8746,11 @@
         <v>-47589.34780631954</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>85.90000000000001</v>
+      </c>
       <c r="J211" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9022,9 +9060,11 @@
         <v>-78432.49020631953</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>85.7</v>
+      </c>
       <c r="J219" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9061,9 +9101,11 @@
         <v>-76608.49930631953</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>86</v>
+      </c>
       <c r="J220" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9100,9 +9142,11 @@
         <v>-19108.49930631953</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>86.3</v>
+      </c>
       <c r="J221" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9256,9 +9300,11 @@
         <v>-24763.15980631953</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>86.8</v>
+      </c>
       <c r="J225" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9295,9 +9341,11 @@
         <v>-23761.90980631953</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>86.5</v>
+      </c>
       <c r="J226" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9334,9 +9382,11 @@
         <v>-17951.90980631953</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>86.59999999999999</v>
+      </c>
       <c r="J227" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9373,9 +9423,11 @@
         <v>-10649.90980631953</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>86.8</v>
+      </c>
       <c r="J228" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9412,9 +9464,11 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>87</v>
+      </c>
       <c r="J229" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9451,9 +9505,11 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J230" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9490,9 +9546,11 @@
         <v>-4150.453106319527</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>87.7</v>
+      </c>
       <c r="J231" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -9529,9 +9587,11 @@
         <v>2321.148693680473</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>87.90000000000001</v>
+      </c>
       <c r="J232" t="n">
         <v>83.90000000000001</v>
       </c>
@@ -10504,7 +10564,7 @@
         <v>392703.8960522937</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
@@ -10512,15 +10572,13 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.157097735399285</v>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10545,11 +10603,17 @@
         <v>380204.5884522937</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10578,11 +10642,17 @@
         <v>367312.0592522937</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10611,11 +10681,17 @@
         <v>402193.0401522937</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10644,11 +10720,17 @@
         <v>544856.9854522938</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10677,11 +10759,17 @@
         <v>544856.9854522938</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10710,11 +10798,17 @@
         <v>528086.5966522938</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10743,11 +10837,17 @@
         <v>533832.2432522938</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10776,11 +10876,17 @@
         <v>533832.2432522938</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10809,11 +10915,17 @@
         <v>531114.7533522937</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10842,11 +10954,17 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10875,11 +10993,17 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10908,11 +11032,17 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10941,11 +11071,17 @@
         <v>487816.7424394225</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10974,11 +11110,17 @@
         <v>503599.7263394225</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11007,11 +11149,17 @@
         <v>507476.4529394225</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11040,11 +11188,17 @@
         <v>502247.4655394225</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11073,11 +11227,17 @@
         <v>547481.5086394225</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11106,11 +11266,17 @@
         <v>446437.4780394225</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11139,11 +11305,17 @@
         <v>651532.6092394225</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11175,8 +11347,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11208,8 +11386,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11241,8 +11425,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11274,8 +11464,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11304,15 +11500,23 @@
         <v>990017.0199076826</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>1.32992252681764</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11337,7 +11541,7 @@
         <v>948766.5126076825</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11370,7 +11574,7 @@
         <v>930461.5697076825</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11403,7 +11607,7 @@
         <v>1028548.462716016</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11436,7 +11640,7 @@
         <v>914653.8685160157</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11469,7 +11673,7 @@
         <v>914653.8685160157</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11568,7 +11772,7 @@
         <v>1103712.056616016</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11601,7 +11805,7 @@
         <v>1065160.420616016</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11667,7 +11871,7 @@
         <v>983396.2716160158</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -12030,7 +12234,7 @@
         <v>848291.5733160159</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12063,7 +12267,7 @@
         <v>848291.5733160159</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12096,7 +12300,7 @@
         <v>832762.7552160159</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12129,7 +12333,7 @@
         <v>834385.8630591531</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12162,7 +12366,7 @@
         <v>834318.8630591531</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12195,7 +12399,7 @@
         <v>803416.7876591531</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
